--- a/hypfs-master/results/test_results.xlsx
+++ b/hypfs-master/results/test_results.xlsx
@@ -1,58 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amministratore\Desktop\IOTA_DHT\hypfs-master\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="pin" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="superset" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="superset_perf" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pin" sheetId="1" r:id="rId1"/>
+    <sheet name="superset" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
+    <sheet name="superset_perf" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>num_req</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -99,123 +118,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -515,115 +455,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9.109375" customWidth="1" style="1" min="1" max="8"/>
-    <col width="9.109375" customWidth="1" style="1" min="9" max="16384"/>
+    <col min="1" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Nodes</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="5" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>1.4</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>1.28</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>1.28</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>1.68</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>1.98</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>1.84</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>2.44</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>2.52</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>2.52</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>64</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>2.72</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>2.92</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>3.14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>128</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>3.3</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>3.48</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>3.56</v>
       </c>
     </row>
@@ -632,116 +564,108 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Nodes</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="5" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="B3" s="5">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C3" s="5">
         <v>1.7</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>1.36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>6.5</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>3.1</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>2.12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>7.7</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>4.58</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="D5" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>64</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>13.42</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>8.26</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>2.88</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>128</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>20.36</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>12.12</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>4.46</v>
       </c>
     </row>
@@ -754,119 +678,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Nodes</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>num_req</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="C3" s="5">
+        <v>0.214146947860718</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="5" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>64</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="B6" s="2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="L12" s="3" t="n"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/hypfs-master/results/test_results.xlsx
+++ b/hypfs-master/results/test_results.xlsx
@@ -1,77 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amministratore\Desktop\IOTA_DHT\hypfs-master\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pin" sheetId="1" r:id="rId1"/>
-    <sheet name="superset" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
-    <sheet name="superset_perf" sheetId="4" r:id="rId4"/>
+    <sheet name="pin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="superset" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="superset_perf" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
-  <si>
-    <t>Nodes</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>num_req</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -118,44 +99,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,107 +521,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="10" width="9.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col width="9.109375" customWidth="1" style="1" min="1" max="14"/>
+    <col width="9.109375" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="12" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3">
+      <c r="A3" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12" t="n">
         <v>1.4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12" t="n">
         <v>1.28</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12" t="n">
         <v>1.28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4">
+      <c r="A4" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12" t="n">
         <v>1.68</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="12" t="n">
         <v>1.98</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12" t="n">
         <v>1.84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5">
+      <c r="A5" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12" t="n">
         <v>2.44</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12" t="n">
         <v>2.52</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12" t="n">
         <v>2.52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6">
+      <c r="A6" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12" t="n">
         <v>2.72</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12" t="n">
         <v>2.92</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12" t="n">
         <v>3.14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7">
+      <c r="A7" s="12" t="n">
         <v>128</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12" t="n">
         <v>3.3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="12" t="n">
         <v>3.48</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12" t="n">
         <v>3.56</v>
       </c>
     </row>
@@ -564,108 +638,116 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="12" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3">
+      <c r="A3" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="12" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>1.7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12" t="n">
         <v>1.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4">
+      <c r="A4" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12" t="n">
         <v>6.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="12" t="n">
         <v>3.1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12" t="n">
         <v>2.12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5">
+      <c r="A5" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12" t="n">
         <v>7.7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12" t="n">
         <v>4.58</v>
       </c>
-      <c r="D5" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="D5" s="12" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12" t="n">
         <v>13.42</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12" t="n">
         <v>8.26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12" t="n">
         <v>2.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7">
+      <c r="A7" s="12" t="n">
         <v>128</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12" t="n">
         <v>20.36</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="12" t="n">
         <v>12.12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12" t="n">
         <v>4.46</v>
       </c>
     </row>
@@ -678,107 +760,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Hops</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Latency</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>num_req</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.03977272727272727</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.1892088055610657</v>
+      </c>
+      <c r="D3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="C4" s="2" t="n">
+        <v>0.02813275655110677</v>
+      </c>
+      <c r="D4" s="12" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>0.224382069977847</v>
+      </c>
+      <c r="D5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.214146947860718</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="C6" s="12" t="n">
+        <v>0.1635618805885315</v>
+      </c>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n">
         <v>128</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L12" s="3"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="L12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="F13" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/hypfs-master/results/test_results.xlsx
+++ b/hypfs-master/results/test_results.xlsx
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -132,11 +132,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -146,9 +146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -534,8 +531,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="9.109375" customWidth="1" style="1" min="1" max="14"/>
-    <col width="9.109375" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="1" max="19"/>
+    <col width="9.109375" customWidth="1" style="1" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,83 +550,83 @@
       <c r="D1" s="11" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="6" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="6" t="n">
         <v>1.4</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="6" t="n">
         <v>1.28</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="6" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="6" t="n">
         <v>1.68</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="6" t="n">
         <v>1.98</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="6" t="n">
         <v>1.84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="6" t="n">
         <v>2.44</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="6" t="n">
         <v>2.52</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="6" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="6" t="n">
         <v>2.72</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="6" t="n">
         <v>2.92</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="6" t="n">
         <v>3.14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="6" t="n">
         <v>3.3</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="6" t="n">
         <v>3.48</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="6" t="n">
         <v>3.56</v>
       </c>
     </row>
@@ -671,83 +668,83 @@
       <c r="D1" s="11" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="6" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="6" t="n">
         <v>4.48</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="6" t="n">
         <v>1.36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="6" t="n">
         <v>3.1</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="6" t="n">
         <v>2.12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="6" t="n">
         <v>7.7</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="6" t="n">
         <v>4.58</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="6" t="n">
         <v>2.26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="6" t="n">
         <v>13.42</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="6" t="n">
         <v>8.26</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="6" t="n">
         <v>2.88</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="6" t="n">
         <v>20.36</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="6" t="n">
         <v>12.12</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="6" t="n">
         <v>4.46</v>
       </c>
     </row>
@@ -783,10 +780,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -797,16 +794,12 @@
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Hops</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Latency</t>
-        </is>
-      </c>
+      <c r="C1" s="5" t="n"/>
       <c r="D1" s="11" t="n"/>
     </row>
     <row r="2">
@@ -815,76 +808,80 @@
           <t>num_req</t>
         </is>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.03977272727272727</v>
+        <v>6.301707779886148</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.1892088055610657</v>
-      </c>
-      <c r="D3" s="2" t="n"/>
+        <v>527</v>
+      </c>
+      <c r="D3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>6.306201550387597</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.02813275655110677</v>
-      </c>
-      <c r="D4" s="12" t="n"/>
+        <v>258</v>
+      </c>
+      <c r="D4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>0.224382069977847</v>
-      </c>
-      <c r="D5" s="2" t="n"/>
+      <c r="B5" s="2" t="n">
+        <v>16.85957446808511</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>470</v>
+      </c>
+      <c r="D5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>0.1635618805885315</v>
+      <c r="B6" s="2" t="n">
+        <v>14.32932692307692</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>416</v>
       </c>
       <c r="D6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="G9" s="3" t="n"/>
     </row>
+    <row r="10">
+      <c r="H10" s="3" t="n"/>
+    </row>
     <row r="12">
       <c r="L12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="F13" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="N17" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hypfs-master/results/test_results.xlsx
+++ b/hypfs-master/results/test_results.xlsx
@@ -817,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6.301707779886148</v>
+        <v>5.913333333333333</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>527</v>
+        <v>1200</v>
       </c>
       <c r="D3" s="6" t="n"/>
     </row>
@@ -829,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6.306201550387597</v>
+        <v>9.310020449897751</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>258</v>
+        <v>2445</v>
       </c>
       <c r="D4" s="6" t="n"/>
     </row>
@@ -841,10 +841,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>16.85957446808511</v>
+        <v>23.32583333333333</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>470</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="6" t="n"/>
     </row>
@@ -853,10 +853,10 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>14.32932692307692</v>
+        <v>21.415</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>416</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="2" t="n"/>
     </row>
